--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H2">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>205.6229413281528</v>
+        <v>538.1131177365268</v>
       </c>
       <c r="R2">
-        <v>205.6229413281528</v>
+        <v>4843.018059628742</v>
       </c>
       <c r="S2">
-        <v>0.0750952251985416</v>
+        <v>0.1534947120948845</v>
       </c>
       <c r="T2">
-        <v>0.0750952251985416</v>
+        <v>0.1534947120948845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H3">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>178.8895974487583</v>
+        <v>437.264536591022</v>
       </c>
       <c r="R3">
-        <v>178.8895974487583</v>
+        <v>3935.380829319198</v>
       </c>
       <c r="S3">
-        <v>0.06533198348063743</v>
+        <v>0.1247280394049128</v>
       </c>
       <c r="T3">
-        <v>0.06533198348063743</v>
+        <v>0.1247280394049128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H4">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>25.96761505073848</v>
+        <v>65.16534513031044</v>
       </c>
       <c r="R4">
-        <v>25.96761505073848</v>
+        <v>586.488106172794</v>
       </c>
       <c r="S4">
-        <v>0.009483591118328461</v>
+        <v>0.01858816587005833</v>
       </c>
       <c r="T4">
-        <v>0.009483591118328461</v>
+        <v>0.01858816587005833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H5">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>775.2143402908777</v>
+        <v>847.3240840464879</v>
       </c>
       <c r="R5">
-        <v>775.2143402908777</v>
+        <v>7625.916756418392</v>
       </c>
       <c r="S5">
-        <v>0.2831147880935008</v>
+        <v>0.24169595953886</v>
       </c>
       <c r="T5">
-        <v>0.2831147880935008</v>
+        <v>0.24169595953886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H6">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>674.4275729906253</v>
+        <v>688.5258150023539</v>
       </c>
       <c r="R6">
-        <v>674.4275729906253</v>
+        <v>6196.732335021185</v>
       </c>
       <c r="S6">
-        <v>0.2463066141681665</v>
+        <v>0.1963993596517898</v>
       </c>
       <c r="T6">
-        <v>0.2463066141681665</v>
+        <v>0.1963993596517898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H7">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N7">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P7">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q7">
-        <v>97.89991058614207</v>
+        <v>102.6107049877731</v>
       </c>
       <c r="R7">
-        <v>97.89991058614207</v>
+        <v>923.4963448899579</v>
       </c>
       <c r="S7">
-        <v>0.03575386960665392</v>
+        <v>0.02926931178745775</v>
       </c>
       <c r="T7">
-        <v>0.03575386960665392</v>
+        <v>0.02926931178745775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H8">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N8">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P8">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q8">
-        <v>390.7979948647095</v>
+        <v>427.5456982562881</v>
       </c>
       <c r="R8">
-        <v>390.7979948647095</v>
+        <v>3847.911284306592</v>
       </c>
       <c r="S8">
-        <v>0.1427227100339403</v>
+        <v>0.1219557778804927</v>
       </c>
       <c r="T8">
-        <v>0.1427227100339403</v>
+        <v>0.1219557778804927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H9">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N9">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P9">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q9">
-        <v>339.9897673555851</v>
+        <v>347.418721933213</v>
       </c>
       <c r="R9">
-        <v>339.9897673555851</v>
+        <v>3126.768497398917</v>
       </c>
       <c r="S9">
-        <v>0.1241671186096966</v>
+        <v>0.09909986384242249</v>
       </c>
       <c r="T9">
-        <v>0.1241671186096966</v>
+        <v>0.09909986384242249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H10">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N10">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P10">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q10">
-        <v>49.35291669158624</v>
+        <v>51.77566215639455</v>
       </c>
       <c r="R10">
-        <v>49.35291669158624</v>
+        <v>465.980959407551</v>
       </c>
       <c r="S10">
-        <v>0.0180240996905344</v>
+        <v>0.01476880992912159</v>
       </c>
       <c r="T10">
-        <v>0.0180240996905344</v>
+        <v>0.01476880992912158</v>
       </c>
     </row>
   </sheetData>
